--- a/hector/lawyer_database.xlsx
+++ b/hector/lawyer_database.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Law_Firm_Name</t>
   </si>
@@ -59,13 +59,22 @@
     <t>Fax_Number</t>
   </si>
   <si>
-    <t xml:space="preserve">Bilingual </t>
-  </si>
-  <si>
     <t>Office_Days</t>
   </si>
   <si>
     <t>Office_Hours</t>
+  </si>
+  <si>
+    <t>Bilingual_Y_N</t>
+  </si>
+  <si>
+    <t>Free_Consultation_Y_N</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>County</t>
   </si>
 </sst>
 </file>
@@ -383,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,13 +405,15 @@
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
     <col min="5" max="8" width="24" customWidth="1"/>
     <col min="9" max="9" width="45.85546875" customWidth="1"/>
-    <col min="10" max="11" width="18.42578125" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" customWidth="1"/>
+    <col min="10" max="12" width="18.42578125" customWidth="1"/>
     <col min="13" max="13" width="22.5703125" customWidth="1"/>
     <col min="14" max="14" width="21.28515625" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" customWidth="1"/>
+    <col min="16" max="16" width="23.7109375" customWidth="1"/>
+    <col min="17" max="17" width="40.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -431,19 +442,28 @@
         <v>4</v>
       </c>
       <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
         <v>6</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/hector/lawyer_database.xlsx
+++ b/hector/lawyer_database.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Law_Firm_Name</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>County</t>
+  </si>
+  <si>
+    <t>Comments</t>
   </si>
 </sst>
 </file>
@@ -392,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,9 +414,10 @@
     <col min="15" max="15" width="14.85546875" customWidth="1"/>
     <col min="16" max="16" width="23.7109375" customWidth="1"/>
     <col min="17" max="17" width="40.42578125" customWidth="1"/>
+    <col min="18" max="18" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,6 +468,9 @@
       </c>
       <c r="Q1" t="s">
         <v>6</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
